--- a/Model/results/metrics.xlsx
+++ b/Model/results/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>imagen</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>confidence_ESAST_detector</t>
+  </si>
+  <si>
+    <t>Levenshtein_google</t>
+  </si>
+  <si>
+    <t>Levenshtein_EAST</t>
   </si>
   <si>
     <t>M-1390 F-42286</t>
@@ -68,8 +74,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,7 +95,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,14 +139,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,59 +147,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,15 +194,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,25 +259,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,157 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,41 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +510,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -544,153 +535,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="16.3636363636364" customWidth="1"/>
@@ -1045,9 +1051,11 @@
     <col min="6" max="6" width="17.0909090909091" customWidth="1"/>
     <col min="7" max="7" width="27.1818181818182" customWidth="1"/>
     <col min="8" max="8" width="26.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="17.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,10 +1080,16 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1098,10 +1112,16 @@
       <c r="H2">
         <v>0.756530173122882</v>
       </c>
+      <c r="I2">
+        <v>0.634714142067083</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -1124,10 +1144,16 @@
       <c r="H3">
         <v>0.90769443145165</v>
       </c>
+      <c r="I3">
+        <v>0.762815656565656</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1150,10 +1176,16 @@
       <c r="H4">
         <v>0.897803170340401</v>
       </c>
+      <c r="I4">
+        <v>0.863333333333333</v>
+      </c>
+      <c r="J4">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1176,10 +1208,16 @@
       <c r="H5">
         <v>0.849781041795557</v>
       </c>
+      <c r="I5">
+        <v>0.78340977443609</v>
+      </c>
+      <c r="J5">
+        <v>0.272433862433862</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -1202,10 +1240,16 @@
       <c r="H6">
         <v>0.822700867249119</v>
       </c>
+      <c r="I6">
+        <v>0.837233766233766</v>
+      </c>
+      <c r="J6">
+        <v>0.204910714285714</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1228,10 +1272,16 @@
       <c r="H7">
         <v>0.805674874782562</v>
       </c>
+      <c r="I7">
+        <v>0.866772486772486</v>
+      </c>
+      <c r="J7">
+        <v>0.292105263157894</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4">
         <v>0.954761904761905</v>
@@ -1244,6 +1294,12 @@
       </c>
       <c r="H9" s="4">
         <v>0.840030759790362</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.791379859901402</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.144908306646245</v>
       </c>
     </row>
   </sheetData>

--- a/Model/results/metrics.xlsx
+++ b/Model/results/metrics.xlsx
@@ -4,17 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24230" windowHeight="12470"/>
+    <workbookView windowWidth="24230" windowHeight="12470" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="M-1390 F-42286" sheetId="2" r:id="rId2"/>
+    <sheet name="M-1390 F-42290" sheetId="3" r:id="rId3"/>
+    <sheet name="C-1974 F-238" sheetId="4" r:id="rId4"/>
+    <sheet name="C-2070 F-252" sheetId="5" r:id="rId5"/>
+    <sheet name="C-2070 F-250" sheetId="6" r:id="rId6"/>
+    <sheet name="C-1974 F-240" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>imagen</t>
   </si>
@@ -65,6 +71,69 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>TP:= Toponimo clasificado como toponimo</t>
+  </si>
+  <si>
+    <t>FP:= No toponimo clasificado como toponimo</t>
+  </si>
+  <si>
+    <t>imagen: M-1390 F-42286</t>
+  </si>
+  <si>
+    <t>11 toponimos</t>
+  </si>
+  <si>
+    <t>FN:= Toponimo no clasificado como toponimo</t>
+  </si>
+  <si>
+    <t>TN:=No toponimo no clasificado como toponimo</t>
+  </si>
+  <si>
+    <t>imagen: M-1390 F-42290</t>
+  </si>
+  <si>
+    <t>14 toponimos</t>
+  </si>
+  <si>
+    <t>imagen: C-1974 F-238</t>
+  </si>
+  <si>
+    <t>5 toponimos</t>
+  </si>
+  <si>
+    <t>imagen: C-2070 F-252</t>
+  </si>
+  <si>
+    <t>imagen: C-2070 F-250</t>
+  </si>
+  <si>
+    <t>16 toponimos</t>
+  </si>
+  <si>
+    <t>imagen: C-1974 F-240</t>
+  </si>
+  <si>
+    <t>10 toponimos</t>
   </si>
 </sst>
 </file>
@@ -72,15 +141,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.05"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -94,8 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,29 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,10 +217,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,14 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -215,9 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,13 +336,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,55 +480,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,116 +520,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -453,11 +530,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,35 +610,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,15 +647,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,141 +665,153 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -775,6 +879,288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5594350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Confusion matrix. Exemplified CM with the formulas of precision (PR),... |  Download Scientific Diagram"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6108700" y="381000"/>
+          <a:ext cx="5397500" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5594350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Confusion matrix. Exemplified CM with the formulas of precision (PR),... |  Download Scientific Diagram"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6680200" y="381000"/>
+          <a:ext cx="5397500" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5594350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Confusion matrix. Exemplified CM with the formulas of precision (PR),... |  Download Scientific Diagram"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6394450" y="381000"/>
+          <a:ext cx="5397500" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5594350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Confusion matrix. Exemplified CM with the formulas of precision (PR),... |  Download Scientific Diagram"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184900" y="381000"/>
+          <a:ext cx="5397500" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5594350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Confusion matrix. Exemplified CM with the formulas of precision (PR),... |  Download Scientific Diagram"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184900" y="381000"/>
+          <a:ext cx="5397500" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5594350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Confusion matrix. Exemplified CM with the formulas of precision (PR),... |  Download Scientific Diagram"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184900" y="381000"/>
+          <a:ext cx="5397500" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1037,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1056,34 +1442,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1280,25 +1666,25 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <v>0.954761904761905</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="8">
         <v>0.505032467532467</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="8">
         <v>0.790694845351416</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="8">
         <v>0.840030759790362</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="8">
         <v>0.791379859901402</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="8">
         <v>0.144908306646245</v>
       </c>
     </row>
@@ -1306,4 +1692,862 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1"/>
+    <col min="9" max="9" width="85.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.916666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="12.8181818181818"/>
+    <col min="4" max="4" width="12.8181818181818"/>
+    <col min="9" max="9" width="82.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.869565217391304</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.903225806451613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.363636363636364</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818"/>
+    <col min="9" max="9" width="82.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818"/>
+    <col min="9" max="9" width="82.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.962962962962963</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.96551724137931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.592592592592593</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.521739130434783</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818"/>
+    <col min="9" max="9" width="82.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.566666666666667</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.606060606060606</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818"/>
+    <col min="9" max="9" width="81.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.909090909090909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.615384615384615</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>